--- a/biology/Botanique/Ipomoea_pes-tigridis/Ipomoea_pes-tigridis.xlsx
+++ b/biology/Botanique/Ipomoea_pes-tigridis/Ipomoea_pes-tigridis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea pes-tigridis est une espèce de plantes dicoylédones de la famille des Convolvulaceae, tribu des  Ipomoeeae, originaire des régions tropicales de l'Ancien Monde (Afrique, Asie, Nouvelle-Guinée). C'est une plante herbacée annuelle aux tiges grêles pouvant atteindre 3 mètres de long, aux feuilles palmatilobées caractéristiques, finement pileuses ou strigueuses, et aux fleurs infundibuliformes blanches, roses ou pourpres.
 </t>
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-{Selon  The Plant List            (30 octobre 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{Selon  The Plant List            (30 octobre 2019) :
 Convolvulus pes-tigridis (L.) Spreng.
 Ipomoea capitellata Choisy
 Ipomoea hepaticifolia L.
-Ipomoea pes-tigridis var. africana Hallier f.
-Liste des variétés
-Selon Tropicos                                           (30 octobre 2019)[2] (Attention liste brute contenant possiblement des synonymes) :
+Ipomoea pes-tigridis var. africana Hallier f.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ipomoea_pes-tigridis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_pes-tigridis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 octobre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Ipomoea pes-tigridis var. africana Hallier f.
 Ipomoea pes-tigridis var. capitella Clarke
 Ipomoea pes-tigridis var. capitellata C.B. Clarke
